--- a/biology/Médecine/7/7.xlsx
+++ b/biology/Médecine/7/7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-De garde 24/7 est une émission de télévision documentaire québécoise produite par Avanti Groupe et diffusée depuis le 7 septembre 2015 à Télé-Québec[1]. Elle a également été diffusée sur Savoir média[2] et est disponible en vidéo à la demande sur la plateforme ICI TOU.TV[3]. La centième épisode de l'émission a été diffusés le 7 décembre 2023, la dixième saison est présentement en production [4].
+De garde 24/7 est une émission de télévision documentaire québécoise produite par Avanti Groupe et diffusée depuis le 7 septembre 2015 à Télé-Québec. Elle a également été diffusée sur Savoir média et est disponible en vidéo à la demande sur la plateforme ICI TOU.TV. La centième épisode de l'émission a été diffusés le 7 décembre 2023, la dixième saison est présentement en production .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série documentaire montre le quotidien et partage les réflexions de plusieurs médecins sur leur travail[5]. Les téléspectateurs sont invités à suivre le déroulement d'un hôpital du Québec, entre les enjeux personnels et professionnels des travailleurs de la santé. La plus récente saison inclut des segments tournés pendant la pandémie de Covid-19[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série documentaire montre le quotidien et partage les réflexions de plusieurs médecins sur leur travail. Les téléspectateurs sont invités à suivre le déroulement d'un hôpital du Québec, entre les enjeux personnels et professionnels des travailleurs de la santé. La plus récente saison inclut des segments tournés pendant la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : De garde 24/7
 Diffuseur: Télé-Québec
@@ -588,7 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saison 1 (2015)
+          <t>Saison 1 (2015)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Profession médecin
 Adrénaline
 Risques de complications
@@ -601,7 +623,43 @@
 La nuit
 Vivre avec la mort
 La beauté du quotidien
-Saison 2 (2016)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 2 (2016)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'équipe
 Faire rouler la machine
 La relève
@@ -614,7 +672,43 @@
 Ultime filet social
 Garder le contrôle
 Subjectivité
-Saison 3 (2017)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 3 (2017)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les limites de la médecine
 Sans répit
 Sauver des vies
@@ -623,7 +717,43 @@
 Rassurer
 Vendredi
 La vie à tout prix
-Saison 4 (2018)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 4 (2018)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Retour des fêtes
 La garde
 Travail d'équipe
@@ -634,7 +764,43 @@
 Anxiété
 Confrontés à la mort
 Enseignement
-Saison 5 (2019)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 5 (2019)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sous pression
 Quand le temps de compte
 L'empathie
@@ -645,7 +811,43 @@
 Vivre avec la maladie
 Un travail d"investigation
 La dernière ligne
-Saison 6 (2020)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 6 (2020)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Covid, le calme avant la tempête
 Covid. la crise
 COVID, les traces de la première vague
@@ -656,7 +858,43 @@
 Souffrance
 Inconnu
 Performance
-Saison 7 (2021)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saison 7 (2021)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anticipation
 Retour des fêtes
 Sur le fil
@@ -669,7 +907,43 @@
 Dignité
 Le temps
 Instinct
-Saison 8 (2022)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Saison 8 (2022)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Part d'incertitude
 Motivation
 Accompagnement
@@ -682,7 +956,43 @@
 Une équipe tissée serrée
 Le lien privilégié
 Le poids des responsabilités
-Saison 9 (2023)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Saison 9 (2023)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Trauma
 L'attente
 Intensité
@@ -701,107 +1011,286 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Équipe de production et intervenants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Web-série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La web-série de 18 épisodes de 2 à 5 minutes prolonge l'expérience de la série sur le web[7].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La web-série de 18 épisodes de 2 à 5 minutes prolonge l'expérience de la série sur le web.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Prix Gémeaux
-Meilleure série documentaire : société (2016[8], 2017, 2019 et 2020)
-Meilleur scénario : documentaire - série (2017 et 2018[9])
-Meilleur son : magazine, affaires publiques, documentaire toutes catégories (2017[10])
-Meilleur montage : affaires publiques, documentaire - série (2018 et 2019[11])
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Prix Gémeaux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Meilleure série documentaire : société (2016, 2017, 2019 et 2020)
+Meilleur scénario : documentaire - série (2017 et 2018)
+Meilleur son : magazine, affaires publiques, documentaire toutes catégories (2017)
+Meilleur montage : affaires publiques, documentaire - série (2018 et 2019)
 Meilleure direction photographique : affaires publiques, documentaire - série (2018 et 2019)
 Meilleure recherche : documentaire - série (2019-2020)
-Meilleure réalisation documentaire : société, histoire et politique - série (2020[12])
-Gold World Medal - New York Festivals International TV &amp; Film Awards
-Documentary – Social Issues (2019) [13]
-Silver World Medal - New York Festivals International TV &amp; Film Awards
-Documentary – Social Issues (2020)
-Intermedia-globe Silver Award - WorldMediaFestivals | Television &amp; Corporate Media Awards
-Documentaries: Medecine (2020)
-Intermedia-globe GOLD - WorldMediaFestivals | Television &amp; Corporate Media Awards
-Documentaries: Medecine (2021)
-Zapettes d'or
-Moment télé utile (2021[14])</t>
+Meilleure réalisation documentaire : société, histoire et politique - série (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gold World Medal - New York Festivals International TV &amp; Film Awards</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Documentary – Social Issues (2019) </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Silver World Medal - New York Festivals International TV &amp; Film Awards</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Documentary – Social Issues (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Intermedia-globe Silver Award - WorldMediaFestivals | Television &amp; Corporate Media Awards</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Documentaries: Medecine (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Intermedia-globe GOLD - WorldMediaFestivals | Television &amp; Corporate Media Awards</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Documentaries: Medecine (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_garde_24/7</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Zapettes d'or</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Moment télé utile (2021)</t>
         </is>
       </c>
     </row>
